--- a/biology/Botanique/Analipus/Analipus.xlsx
+++ b/biology/Botanique/Analipus/Analipus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Analipus est un genre d’algues brunes de la famille des Ralfsiaceae selon AlgaeBase                                           (11 mars 2019)[1] et NCBI  (11 mars 2019)[3], ou de celle des Chordariaceae selon ITIS      (11 mars 2019)[4] ou encore de celle des Scytosiphonaceae selon World Register of Marine Species                               (11 mars 2019)[2] et Catalogue of Life                                  (11 mars 2019)[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Analipus est un genre d’algues brunes de la famille des Ralfsiaceae selon AlgaeBase                                           (11 mars 2019) et NCBI  (11 mars 2019), ou de celle des Chordariaceae selon ITIS      (11 mars 2019) ou encore de celle des Scytosiphonaceae selon World Register of Marine Species                               (11 mars 2019) et Catalogue of Life                                  (11 mars 2019).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Analipus vient du grec αναλιπος / analipos, « pied nu »[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Analipus vient du grec αναλιπος / analipos, « pied nu ».
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (11 mars 2019)[1] et World Register of Marine Species                               (11 mars 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (11 mars 2019) et World Register of Marine Species                               (11 mars 2019) :
 Analipus filiformis (Ruprecht) Papenfuss, 1967
 Analipus gunjii (Yendo) Kogame &amp; Yoshida, 1997
 Analipus japonicus (Harvey) M.J.Wynne, 1971
-Selon ITIS      (11 mars 2019)[4] :
+Selon ITIS      (11 mars 2019) :
 Analipus fusifromis
 Analipus japonicus</t>
         </is>
